--- a/original_MV_in/log/all_percent_in.xlsx
+++ b/original_MV_in/log/all_percent_in.xlsx
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>above_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>改变了参考顺序使得正上方的在第一位，左边的在第二位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,15 +68,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>leftbellow_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>left_count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Aboveright_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>leftbellow_count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>left_count</t>
+    <t>above_count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,7 +513,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,7 +534,7 @@
   <sheetData>
     <row r="1" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -542,19 +542,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -580,229 +580,229 @@
         <v>0</v>
       </c>
       <c r="B3" s="4">
-        <v>6791</v>
+        <v>6753</v>
       </c>
       <c r="C3" s="4">
-        <v>1462</v>
+        <v>1559</v>
       </c>
       <c r="D3" s="4">
-        <v>196</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4">
-        <v>289</v>
+        <v>128</v>
       </c>
       <c r="F3" s="4">
-        <v>635</v>
+        <v>219</v>
       </c>
       <c r="G3" s="4">
-        <v>3107</v>
+        <v>665</v>
       </c>
       <c r="H3" s="1">
         <f>C3/B3</f>
-        <v>0.2152849359446326</v>
+        <v>0.23086035835924773</v>
       </c>
       <c r="I3" s="1">
         <f>D3/B3</f>
-        <v>2.8861728758651155E-2</v>
+        <v>1.2438916037316748E-2</v>
       </c>
       <c r="J3" s="1">
         <f>E3/B3</f>
-        <v>4.2556324547194817E-2</v>
+        <v>1.8954538723530284E-2</v>
       </c>
       <c r="K3">
         <f>H3+I3+J3</f>
-        <v>0.28670298925047855</v>
+        <v>0.26225381312009477</v>
       </c>
       <c r="L3">
         <f>G3/B3</f>
-        <v>0.45751730231188337</v>
+        <v>9.847475196209092E-2</v>
       </c>
       <c r="M3">
         <f>F3/B3</f>
-        <v>9.3506111029303493E-2</v>
+        <v>3.2430031097290091E-2</v>
       </c>
       <c r="N3">
         <f>M3+L3</f>
-        <v>0.55102341334118687</v>
+        <v>0.13090478305938102</v>
       </c>
       <c r="O3">
         <f>N3+K3</f>
-        <v>0.83772640259166542</v>
+        <v>0.39315859617947579</v>
       </c>
       <c r="P3">
         <f>1-O3</f>
-        <v>0.16227359740833458</v>
+        <v>0.60684140382052421</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="4">
-        <v>4424</v>
+        <v>4440</v>
       </c>
       <c r="C4" s="4">
-        <v>698</v>
+        <v>1705</v>
       </c>
       <c r="D4" s="4">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="E4" s="4">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="F4" s="4">
-        <v>265</v>
+        <v>80</v>
       </c>
       <c r="G4" s="4">
-        <v>2850</v>
+        <v>325</v>
       </c>
       <c r="H4" s="1">
         <f>C4/B4</f>
-        <v>0.15777576853526221</v>
+        <v>0.38400900900900903</v>
       </c>
       <c r="I4" s="1">
         <f>D4/B4</f>
-        <v>6.1030741410488245E-3</v>
+        <v>1.3513513513513514E-3</v>
       </c>
       <c r="J4" s="1">
         <f>E4/B4</f>
-        <v>1.6500904159132006E-2</v>
+        <v>5.1801801801801802E-3</v>
       </c>
       <c r="K4">
         <f>H4+I4+J4</f>
-        <v>0.18037974683544303</v>
+        <v>0.39054054054054055</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L21" si="0">G4/B4</f>
-        <v>0.64421338155515373</v>
+        <v>7.31981981981982E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M21" si="1">F4/B4</f>
-        <v>5.9900542495479207E-2</v>
+        <v>1.8018018018018018E-2</v>
       </c>
       <c r="N4">
         <f t="shared" ref="N4:N21" si="2">M4+L4</f>
-        <v>0.70411392405063289</v>
+        <v>9.1216216216216214E-2</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O21" si="3">N4+K4</f>
-        <v>0.88449367088607589</v>
+        <v>0.48175675675675678</v>
       </c>
       <c r="P4">
         <f t="shared" ref="P4:P21" si="4">1-O4</f>
-        <v>0.11550632911392411</v>
+        <v>0.51824324324324322</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="4">
-        <v>4043</v>
+        <v>4082</v>
       </c>
       <c r="C5" s="4">
-        <v>545</v>
-      </c>
-      <c r="D5" s="4">
-        <v>13</v>
+        <v>1998</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
       </c>
       <c r="E5" s="4">
+        <v>10</v>
+      </c>
+      <c r="F5" s="4">
         <v>55</v>
       </c>
-      <c r="F5" s="4">
-        <v>188</v>
-      </c>
       <c r="G5" s="4">
-        <v>2861</v>
+        <v>226</v>
       </c>
       <c r="H5" s="1">
         <f>C5/B5</f>
-        <v>0.13480089042790008</v>
+        <v>0.48946594806467419</v>
       </c>
       <c r="I5" s="1">
         <f>D5/B5</f>
-        <v>3.2154340836012861E-3</v>
+        <v>2.4497795198432141E-4</v>
       </c>
       <c r="J5" s="1">
         <f>E5/B5</f>
-        <v>1.360375958446698E-2</v>
+        <v>2.4497795198432141E-3</v>
       </c>
       <c r="K5">
         <f>H5+I5+J5</f>
-        <v>0.15162008409596833</v>
+        <v>0.49216070553650171</v>
       </c>
       <c r="L5">
         <f t="shared" si="0"/>
-        <v>0.70764283947563689</v>
+        <v>5.5365017148456638E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>4.6500123670541675E-2</v>
+        <v>1.3473787359137677E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="2"/>
-        <v>0.75414296314617857</v>
+        <v>6.8838804507594317E-2</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>0.90576304724214696</v>
+        <v>0.56099951004409598</v>
       </c>
       <c r="P5">
         <f t="shared" si="4"/>
-        <v>9.4236952757853043E-2</v>
+        <v>0.43900048995590402</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="4">
-        <v>4004</v>
+        <v>3979</v>
       </c>
       <c r="C6" s="4">
-        <v>322</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4</v>
+        <v>2181</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F6" s="4">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="G6" s="4">
-        <v>3170</v>
+        <v>140</v>
       </c>
       <c r="H6" s="1">
         <f>C6/B6</f>
-        <v>8.0419580419580416E-2</v>
+        <v>0.54812767026891174</v>
       </c>
       <c r="I6" s="1">
         <f>D6/B6</f>
-        <v>9.99000999000999E-4</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
         <f>E6/B6</f>
-        <v>5.4945054945054949E-3</v>
+        <v>1.5079165619502387E-3</v>
       </c>
       <c r="K6">
         <f>H6+I6+J6</f>
-        <v>8.6913086913086898E-2</v>
+        <v>0.549635586830862</v>
       </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>0.79170829170829171</v>
+        <v>3.5184719778838906E-2</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>3.071928071928072E-2</v>
+        <v>4.2724302588590096E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="2"/>
-        <v>0.82242757242757247</v>
+        <v>3.9457150037697918E-2</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>0.90934065934065933</v>
+        <v>0.5890927368685599</v>
       </c>
       <c r="P6">
         <f t="shared" si="4"/>
-        <v>9.065934065934067E-2</v>
+        <v>0.4109072631314401</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -810,229 +810,229 @@
         <v>1</v>
       </c>
       <c r="B8" s="4">
-        <v>6098</v>
+        <v>5910</v>
       </c>
       <c r="C8" s="4">
-        <v>1374</v>
+        <v>958</v>
       </c>
       <c r="D8" s="4">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="E8" s="4">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="F8" s="4">
-        <v>526</v>
+        <v>194</v>
       </c>
       <c r="G8" s="4">
-        <v>2526</v>
+        <v>681</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ref="H8:H21" si="5">C8/B8</f>
-        <v>0.22531977697605773</v>
+        <v>0.16209813874788495</v>
       </c>
       <c r="I8" s="1">
         <f>G8/B8</f>
-        <v>0.41423417513938998</v>
+        <v>0.11522842639593908</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" ref="J8:J21" si="6">E8/B8</f>
-        <v>4.3128894719580188E-2</v>
+        <v>1.6412859560067682E-2</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:K21" si="7">H8+I8+J8</f>
-        <v>0.68268284683502789</v>
+        <v>0.29373942470389169</v>
       </c>
       <c r="L8">
         <f>G8/B8</f>
-        <v>0.41423417513938998</v>
+        <v>0.11522842639593908</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>8.6257789439160376E-2</v>
+        <v>3.2825719120135363E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="2"/>
-        <v>0.50049196457855039</v>
+        <v>0.14805414551607443</v>
       </c>
       <c r="O8">
         <f>N8+K8</f>
-        <v>1.1831748114135783</v>
+        <v>0.44179357021996613</v>
       </c>
       <c r="P8">
         <f>1-O8</f>
-        <v>-0.18317481141357828</v>
+        <v>0.55820642978003387</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
       <c r="B9" s="4">
-        <v>5546</v>
+        <v>5449</v>
       </c>
       <c r="C9" s="4">
-        <v>1179</v>
+        <v>1043</v>
       </c>
       <c r="D9" s="4">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4">
-        <v>173</v>
+        <v>60</v>
       </c>
       <c r="F9" s="4">
-        <v>461</v>
+        <v>177</v>
       </c>
       <c r="G9" s="4">
-        <v>2771</v>
+        <v>653</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" si="5"/>
-        <v>0.21258564731337901</v>
+        <v>0.19141126812259129</v>
       </c>
       <c r="I9" s="1">
         <f t="shared" ref="I9:I21" si="8">D9/B9</f>
-        <v>1.9834114677244861E-2</v>
+        <v>7.340796476417691E-3</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="6"/>
-        <v>3.1193653083303283E-2</v>
+        <v>1.1011194714626537E-2</v>
       </c>
       <c r="K9">
         <f t="shared" si="7"/>
-        <v>0.26361341507392716</v>
+        <v>0.20976325931363551</v>
       </c>
       <c r="L9">
         <f t="shared" si="0"/>
-        <v>0.49963937973314099</v>
+        <v>0.11983850247751882</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>8.3122971510998914E-2</v>
+        <v>3.2483024408148285E-2</v>
       </c>
       <c r="N9">
         <f t="shared" si="2"/>
-        <v>0.58276235124413989</v>
+        <v>0.15232152688566711</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>0.8463757663180671</v>
+        <v>0.36208478619930262</v>
       </c>
       <c r="P9">
         <f t="shared" si="4"/>
-        <v>0.1536242336819329</v>
+        <v>0.63791521380069738</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
       <c r="B10" s="4">
-        <v>4922</v>
+        <v>4945</v>
       </c>
       <c r="C10" s="4">
-        <v>1041</v>
+        <v>1249</v>
       </c>
       <c r="D10" s="4">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4">
-        <v>123</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4">
-        <v>305</v>
+        <v>124</v>
       </c>
       <c r="G10" s="4">
-        <v>2711</v>
+        <v>526</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" si="5"/>
-        <v>0.21149939049167005</v>
+        <v>0.25257836198179978</v>
       </c>
       <c r="I10" s="1">
         <f t="shared" si="8"/>
-        <v>1.2393336042259244E-2</v>
+        <v>5.6622851365015171E-3</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="6"/>
-        <v>2.4989841527834213E-2</v>
+        <v>7.4823053589484325E-3</v>
       </c>
       <c r="K10">
         <f t="shared" si="7"/>
-        <v>0.24888256806176351</v>
+        <v>0.26572295247724975</v>
       </c>
       <c r="L10">
         <f t="shared" si="0"/>
-        <v>0.55079236082893135</v>
+        <v>0.10637007077856421</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>6.196668021129622E-2</v>
+        <v>2.5075834175935289E-2</v>
       </c>
       <c r="N10">
         <f t="shared" si="2"/>
-        <v>0.6127590410402276</v>
+        <v>0.13144590495449951</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.86164160910199117</v>
+        <v>0.39716885743174923</v>
       </c>
       <c r="P10">
         <f t="shared" si="4"/>
-        <v>0.13835839089800883</v>
+        <v>0.60283114256825077</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
       <c r="B11" s="4">
-        <v>4541</v>
+        <v>4381</v>
       </c>
       <c r="C11" s="4">
-        <v>902</v>
+        <v>1401</v>
       </c>
       <c r="D11" s="4">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
-        <v>247</v>
+        <v>85</v>
       </c>
       <c r="G11" s="4">
-        <v>2626</v>
+        <v>369</v>
       </c>
       <c r="H11" s="1">
         <f>C11/B11</f>
-        <v>0.19863466196872936</v>
+        <v>0.31979000228258386</v>
       </c>
       <c r="I11" s="1">
         <f>D11/B11</f>
-        <v>1.0350143140277471E-2</v>
+        <v>6.1629764893859846E-3</v>
       </c>
       <c r="J11" s="1">
         <f>E11/B11</f>
-        <v>2.2021581149526535E-2</v>
+        <v>6.8477516548733162E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="7"/>
-        <v>0.23100638625853337</v>
+        <v>0.33280073042684316</v>
       </c>
       <c r="L11">
         <f>G11/B11</f>
-        <v>0.57828672098656686</v>
+        <v>8.4227345354941793E-2</v>
       </c>
       <c r="M11">
         <f>F11/B11</f>
-        <v>5.4393305439330547E-2</v>
+        <v>1.9401963022141065E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="2"/>
-        <v>0.63268002642589738</v>
+        <v>0.10362930837708285</v>
       </c>
       <c r="O11">
         <f>N11+K11</f>
-        <v>0.8636864126844308</v>
+        <v>0.436430038803926</v>
       </c>
       <c r="P11">
         <f>1-O11</f>
-        <v>0.1363135873155692</v>
+        <v>0.56356996119607405</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -1040,459 +1040,459 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>6081</v>
+        <v>5765</v>
       </c>
       <c r="C13" s="4">
-        <v>933</v>
+        <v>447</v>
       </c>
       <c r="D13" s="4">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4">
-        <v>168</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4">
-        <v>508</v>
+        <v>158</v>
       </c>
       <c r="G13" s="4">
-        <v>3437</v>
+        <v>1316</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="5"/>
-        <v>0.15342871238283176</v>
+        <v>7.7536860364267129E-2</v>
       </c>
       <c r="I13" s="1">
         <f t="shared" si="8"/>
-        <v>1.6773556980759743E-2</v>
+        <v>4.509973980919341E-3</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="6"/>
-        <v>2.7627035027133696E-2</v>
+        <v>6.938421509106678E-3</v>
       </c>
       <c r="K13">
         <f t="shared" si="7"/>
-        <v>0.19782930439072521</v>
+        <v>8.8985255854293149E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="0"/>
-        <v>0.56520309159677684</v>
+        <v>0.22827406764960972</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>8.353889162966617E-2</v>
+        <v>2.7406764960971379E-2</v>
       </c>
       <c r="N13">
         <f t="shared" si="2"/>
-        <v>0.64874198322644305</v>
+        <v>0.25568083261058111</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>0.84657128761716827</v>
+        <v>0.34466608846487423</v>
       </c>
       <c r="P13">
         <f t="shared" si="4"/>
-        <v>0.15342871238283173</v>
+        <v>0.65533391153512577</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="4">
-        <v>3953</v>
+        <v>3737</v>
       </c>
       <c r="C14" s="4">
-        <v>680</v>
+        <v>376</v>
       </c>
       <c r="D14" s="4">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="F14" s="4">
-        <v>263</v>
+        <v>99</v>
       </c>
       <c r="G14" s="4">
-        <v>2254</v>
+        <v>727</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>0.17202124968378446</v>
+        <v>0.10061546695210062</v>
       </c>
       <c r="I14" s="1">
         <f t="shared" si="8"/>
-        <v>1.1636731596256009E-2</v>
+        <v>4.2815092320042814E-3</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="6"/>
-        <v>2.8585884138628889E-2</v>
+        <v>4.0139149050040139E-3</v>
       </c>
       <c r="K14">
         <f t="shared" si="7"/>
-        <v>0.21224386541866935</v>
+        <v>0.10891089108910891</v>
       </c>
       <c r="L14">
         <f t="shared" si="0"/>
-        <v>0.57019984821654435</v>
+        <v>0.19454107572919455</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>6.6531748039463698E-2</v>
+        <v>2.6491838373026492E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="2"/>
-        <v>0.63673159625600806</v>
+        <v>0.22103291410222103</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>0.84897546167467741</v>
+        <v>0.32994380519132993</v>
       </c>
       <c r="P14">
         <f t="shared" si="4"/>
-        <v>0.15102453832532259</v>
+        <v>0.67005619480867007</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="4">
-        <v>3772</v>
+        <v>3543</v>
       </c>
       <c r="C15" s="4">
-        <v>741</v>
+        <v>350</v>
       </c>
       <c r="D15" s="4">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E15" s="4">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="F15" s="4">
-        <v>213</v>
+        <v>56</v>
       </c>
       <c r="G15" s="4">
-        <v>1882</v>
+        <v>490</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>0.1964475079533404</v>
+        <v>9.8786339260513695E-2</v>
       </c>
       <c r="I15" s="1">
         <f t="shared" si="8"/>
-        <v>1.2725344644750796E-2</v>
+        <v>2.2579734688117415E-3</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="6"/>
-        <v>2.5185577942735949E-2</v>
+        <v>5.0804403048264179E-3</v>
       </c>
       <c r="K15">
         <f t="shared" si="7"/>
-        <v>0.23435843054082717</v>
+        <v>0.10612475303415185</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.49893955461293743</v>
+        <v>0.13830087496471916</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>5.6468716861081653E-2</v>
+        <v>1.5805814281682189E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0.55540827147401906</v>
+        <v>0.15410668924640133</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>0.78976670201484622</v>
+        <v>0.26023144228055317</v>
       </c>
       <c r="P15">
         <f t="shared" si="4"/>
-        <v>0.21023329798515378</v>
+        <v>0.73976855771944683</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="4">
-        <v>3791</v>
+        <v>3685</v>
       </c>
       <c r="C16" s="4">
-        <v>891</v>
+        <v>436</v>
       </c>
       <c r="D16" s="4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="F16" s="4">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="G16" s="4">
-        <v>1396</v>
+        <v>302</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>0.23503033500395673</v>
+        <v>0.11831750339213026</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="8"/>
-        <v>6.0670007913479294E-3</v>
+        <v>1.3568521031207597E-3</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="6"/>
-        <v>2.6642046953310471E-2</v>
+        <v>4.0705563093622792E-3</v>
       </c>
       <c r="K16">
         <f t="shared" si="7"/>
-        <v>0.26773938274861514</v>
+        <v>0.12374491180461329</v>
       </c>
       <c r="L16">
         <f t="shared" si="0"/>
-        <v>0.36824056977050912</v>
+        <v>8.1953867028493887E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>6.831970456343972E-2</v>
+        <v>1.0854816824966078E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="2"/>
-        <v>0.43656027433394884</v>
+        <v>9.2808683853459972E-2</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>0.70429965708256392</v>
+        <v>0.21655359565807325</v>
       </c>
       <c r="P16">
         <f t="shared" si="4"/>
-        <v>0.29570034291743608</v>
+        <v>0.78344640434192669</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="3">
-        <v>8509</v>
+      <c r="B18" s="4">
+        <v>8454</v>
       </c>
       <c r="C18" s="4">
-        <v>2161</v>
+        <v>3811</v>
       </c>
       <c r="D18" s="4">
-        <v>316</v>
+        <v>208</v>
       </c>
       <c r="E18" s="4">
-        <v>406</v>
+        <v>298</v>
       </c>
       <c r="F18" s="4">
-        <v>654</v>
+        <v>414</v>
       </c>
       <c r="G18" s="4">
-        <v>3983</v>
+        <v>1031</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="5"/>
-        <v>0.25396638852979198</v>
+        <v>0.45079252424887628</v>
       </c>
       <c r="I18" s="1">
         <f>D18/B18</f>
-        <v>3.7137148901163472E-2</v>
+        <v>2.4603737875561863E-2</v>
       </c>
       <c r="J18" s="1">
         <f>E11/B18</f>
-        <v>1.175226231049477E-2</v>
+        <v>3.5486160397444995E-3</v>
       </c>
       <c r="K18">
         <f t="shared" si="7"/>
-        <v>0.30285579974145022</v>
+        <v>0.47894487816418263</v>
       </c>
       <c r="L18">
         <f t="shared" si="0"/>
-        <v>0.46809260782700668</v>
+        <v>0.12195410456588597</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>7.6859795510635792E-2</v>
+        <v>4.8970901348474094E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="2"/>
-        <v>0.5449524033376425</v>
+        <v>0.17092500591436005</v>
       </c>
       <c r="O18">
         <f>N18+K18</f>
-        <v>0.84780820307909277</v>
+        <v>0.64986988407854263</v>
       </c>
       <c r="P18">
         <f>1-O18</f>
-        <v>0.15219179692090723</v>
+        <v>0.35013011592145737</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="4">
-        <v>5767</v>
+        <v>5729</v>
       </c>
       <c r="C19" s="4">
-        <v>1068</v>
+        <v>3216</v>
       </c>
       <c r="D19" s="4">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="E19" s="4">
-        <v>158</v>
+        <v>69</v>
       </c>
       <c r="F19" s="4">
-        <v>316</v>
+        <v>172</v>
       </c>
       <c r="G19" s="4">
-        <v>3645</v>
+        <v>506</v>
       </c>
       <c r="H19" s="1">
         <f t="shared" si="5"/>
-        <v>0.18519160742153631</v>
+        <v>0.56135451213126197</v>
       </c>
       <c r="I19" s="1">
         <f t="shared" si="8"/>
-        <v>1.4392231662909658E-2</v>
+        <v>1.1171234072263921E-2</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="6"/>
-        <v>2.7397260273972601E-2</v>
+        <v>1.204398673415954E-2</v>
       </c>
       <c r="K19">
         <f t="shared" si="7"/>
-        <v>0.22698109935841856</v>
+        <v>0.58456973293768544</v>
       </c>
       <c r="L19">
         <f t="shared" si="0"/>
-        <v>0.63204439049765915</v>
+        <v>8.8322569383836619E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>5.4794520547945202E-2</v>
+        <v>3.0022691569209285E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="2"/>
-        <v>0.68683891104560435</v>
+        <v>0.1183452609530459</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>0.91382001040402294</v>
+        <v>0.70291499389073131</v>
       </c>
       <c r="P19">
         <f t="shared" si="4"/>
-        <v>8.6179989595977058E-2</v>
+        <v>0.29708500610926869</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="4">
-        <v>4891</v>
+        <v>4954</v>
       </c>
       <c r="C20" s="4">
-        <v>690</v>
+        <v>3462</v>
       </c>
       <c r="D20" s="4">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E20" s="4">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="G20" s="4">
-        <v>3614</v>
+        <v>290</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" si="5"/>
-        <v>0.14107544469433653</v>
+        <v>0.69882922890593457</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" si="8"/>
-        <v>8.7916581476180748E-3</v>
+        <v>7.064997981429148E-3</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="6"/>
-        <v>1.1245144142302188E-2</v>
+        <v>5.6519983851433184E-3</v>
       </c>
       <c r="K20">
         <f t="shared" si="7"/>
-        <v>0.16111224698425677</v>
+        <v>0.71154622527250699</v>
       </c>
       <c r="L20">
         <f t="shared" si="0"/>
-        <v>0.73890819873236557</v>
+        <v>5.8538554703270088E-2</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>3.3122060928235532E-2</v>
+        <v>1.3120710536939846E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="2"/>
-        <v>0.77203025966060113</v>
+        <v>7.1659265240209935E-2</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>0.93314250664485787</v>
+        <v>0.78320549051271693</v>
       </c>
       <c r="P20">
         <f t="shared" si="4"/>
-        <v>6.6857493355142128E-2</v>
+        <v>0.21679450948728307</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="4">
-        <v>4486</v>
+        <v>4480</v>
       </c>
       <c r="C21" s="4">
-        <v>475</v>
+        <v>3310</v>
       </c>
       <c r="D21" s="4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F21" s="4">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="G21" s="4">
-        <v>3673</v>
+        <v>145</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="5"/>
-        <v>0.10588497547926884</v>
+        <v>0.7388392857142857</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="8"/>
-        <v>2.8979045920641999E-3</v>
+        <v>2.4553571428571428E-3</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="6"/>
-        <v>4.90414623272403E-3</v>
+        <v>2.0089285714285712E-3</v>
       </c>
       <c r="K21">
         <f t="shared" si="7"/>
-        <v>0.11368702630405707</v>
+        <v>0.7433035714285714</v>
       </c>
       <c r="L21">
         <f t="shared" si="0"/>
-        <v>0.81876950512706193</v>
+        <v>3.2366071428571432E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>2.0062416406598307E-2</v>
+        <v>9.8214285714285712E-3</v>
       </c>
       <c r="N21">
         <f t="shared" si="2"/>
-        <v>0.83883192153366026</v>
+        <v>4.2187500000000003E-2</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0.95251894783771729</v>
+        <v>0.78549107142857144</v>
       </c>
       <c r="P21">
         <f t="shared" si="4"/>
-        <v>4.7481052162282711E-2</v>
+        <v>0.21450892857142856</v>
       </c>
     </row>
   </sheetData>
